--- a/public/sample/EmployeeAttendenceSheetV1.xlsx
+++ b/public/sample/EmployeeAttendenceSheetV1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\office-payroll\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D827BA-A46F-4CDF-B5CA-F37CC32AAA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45373DBE-BEEE-4102-A994-57DC4F8F9983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9A310A8-C42E-4E5F-9963-FDDDBEA41122}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>45784</v>
+        <v>45755</v>
       </c>
       <c r="E3" s="4">
         <v>0.40625</v>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="3">
-        <v>45450</v>
+        <v>45391</v>
       </c>
       <c r="E4" s="4">
         <v>0.39583333333333331</v>
